--- a/data/trans_orig/P44AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82C8FE5-A743-47DE-8805-0B9735519725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3B1C87-026D-4AEC-94FB-6954DEF8A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11015A41-A5F3-4CA4-BA2B-881CACFA24F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBFAEA7E-F0C2-4645-A37F-A7B04EA7370E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="337">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -118,7 +118,7 @@
     <t>28,48%</t>
   </si>
   <si>
-    <t>71,67%</t>
+    <t>72,9%</t>
   </si>
   <si>
     <t>51,94%</t>
@@ -130,10 +130,10 @@
     <t>42,75%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>23,69%</t>
@@ -148,7 +148,7 @@
     <t>28,77%</t>
   </si>
   <si>
-    <t>69,69%</t>
+    <t>71,64%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -169,61 +169,61 @@
     <t>24,95%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>37,72%</t>
+    <t>20,19%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>62,28%</t>
+    <t>79,81%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>33,9%</t>
+    <t>32,83%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>32,69%</t>
+    <t>32,92%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -253,403 +253,406 @@
     <t>49,76%</t>
   </si>
   <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>46,97%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -658,331 +661,331 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>33,37%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
   </si>
   <si>
     <t>35,2%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -997,55 +1000,55 @@
     <t>37,77%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B67780-8348-4CF8-A586-CE9263F86E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871667A6-DA52-40AE-831E-65F3D338865C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,7 +2623,7 @@
         <v>89</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2629,13 +2632,13 @@
         <v>3834</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2653,13 @@
         <v>6128</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2665,13 +2668,13 @@
         <v>2053</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2680,13 +2683,13 @@
         <v>8181</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2704,13 @@
         <v>3981</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2716,13 +2719,13 @@
         <v>1077</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2731,13 +2734,13 @@
         <v>5058</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2859,13 @@
         <v>1037</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2871,13 +2874,13 @@
         <v>10250</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2886,13 +2889,13 @@
         <v>11287</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2910,13 @@
         <v>17919</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2922,13 +2925,13 @@
         <v>12355</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -2937,13 +2940,13 @@
         <v>30274</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2961,13 @@
         <v>9215</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -2973,13 +2976,13 @@
         <v>6284</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -2988,13 +2991,13 @@
         <v>15499</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,37 +3018,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3104,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +3125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E18096-80AE-42AF-8805-EC3B4BF3A337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02F7478-8B94-4BCD-B40B-8A282B578CC4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3139,7 +3142,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3493,7 +3496,7 @@
         <v>952</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
@@ -3508,7 +3511,7 @@
         <v>2241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
@@ -3523,13 +3526,13 @@
         <v>3193</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3547,7 @@
         <v>892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -3574,13 +3577,13 @@
         <v>892</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3610,13 +3613,13 @@
         <v>1046</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3625,13 +3628,13 @@
         <v>1046</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3661,13 +3664,13 @@
         <v>1205</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3676,13 +3679,13 @@
         <v>1205</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3789,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3804,13 @@
         <v>3818</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -3819,7 +3822,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>18</v>
@@ -3831,13 +3834,13 @@
         <v>8164</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3855,13 @@
         <v>2966</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3882,13 +3885,13 @@
         <v>2966</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3942,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,7 +4010,7 @@
         <v>2056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -4037,7 +4040,7 @@
         <v>2056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
@@ -4058,13 +4061,13 @@
         <v>1138</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4088,13 +4091,13 @@
         <v>2135</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4112,13 @@
         <v>890</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4139,13 +4142,13 @@
         <v>890</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4279,13 +4282,13 @@
         <v>3582</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -4294,13 +4297,13 @@
         <v>3582</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4384,13 @@
         <v>2120</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4396,13 +4399,13 @@
         <v>6232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4426,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4438,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -4453,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4524,13 @@
         <v>3008</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -4536,13 +4539,13 @@
         <v>5823</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -4551,13 +4554,13 @@
         <v>8830</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4575,13 @@
         <v>15687</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4587,13 +4590,13 @@
         <v>12645</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -4602,13 +4605,13 @@
         <v>28333</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4626,13 @@
         <v>7968</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4638,13 +4641,13 @@
         <v>3166</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -4653,13 +4656,13 @@
         <v>11134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4689,13 +4692,13 @@
         <v>1205</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4704,13 +4707,13 @@
         <v>1205</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,7 +4769,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4787,7 +4790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5A136A-593D-49A1-82F3-3FEB6616E39A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D347CA6-6F43-46D3-B456-D2B939EBA49F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4804,7 +4807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5164,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5179,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5194,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5212,13 @@
         <v>8809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5224,13 +5227,13 @@
         <v>4376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5239,13 +5242,13 @@
         <v>13185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5263,13 @@
         <v>4285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5275,13 +5278,13 @@
         <v>4001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5290,13 +5293,13 @@
         <v>8286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,7 +5320,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5332,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5347,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,7 +5424,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5436,7 +5439,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5451,7 +5454,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5469,13 @@
         <v>16063</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -5481,13 +5484,13 @@
         <v>18696</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -5496,13 +5499,13 @@
         <v>34759</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5520,13 @@
         <v>64817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5532,13 +5535,13 @@
         <v>9386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5547,13 +5550,13 @@
         <v>74203</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5589,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5604,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5693,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5708,7 +5711,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5726,13 @@
         <v>9119</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -5738,13 +5741,13 @@
         <v>7157</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5753,13 +5756,13 @@
         <v>16276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5777,13 @@
         <v>13548</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -5789,13 +5792,13 @@
         <v>10012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -5804,13 +5807,13 @@
         <v>23560</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5846,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5861,7 +5864,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,16 +6031,16 @@
         <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>11646</v>
+        <v>11647</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6046,13 +6049,13 @@
         <v>10927</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -6061,13 +6064,13 @@
         <v>22573</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6133,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="7">
-        <v>34897</v>
+        <v>34898</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>18</v>
@@ -6192,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6207,7 +6210,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6222,7 +6225,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6240,13 @@
         <v>57241</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H30" s="7">
         <v>79</v>
@@ -6252,13 +6255,13 @@
         <v>48540</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -6267,13 +6270,13 @@
         <v>105782</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6291,13 @@
         <v>94297</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -6303,13 +6306,13 @@
         <v>34809</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M31" s="7">
         <v>108</v>
@@ -6318,13 +6321,13 @@
         <v>129105</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6348,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6360,7 +6363,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6375,7 +6378,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,7 +6434,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3B1C87-026D-4AEC-94FB-6954DEF8A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AE6EC7-DAAA-4F7C-B5F4-A9DC767E5A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBFAEA7E-F0C2-4645-A37F-A7B04EA7370E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A47E4BF-018A-4367-AE60-620668A3C142}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="341">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -103,7 +103,7 @@
     <t>Análisis de sangre</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>24,37%</t>
@@ -118,7 +118,7 @@
     <t>28,48%</t>
   </si>
   <si>
-    <t>72,9%</t>
+    <t>71,54%</t>
   </si>
   <si>
     <t>51,94%</t>
@@ -130,10 +130,10 @@
     <t>42,75%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>23,69%</t>
@@ -148,781 +148,793 @@
     <t>28,77%</t>
   </si>
   <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2016 (Tasa respuesta: 0,72%)</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
     <t>71,64%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -1460,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871667A6-DA52-40AE-831E-65F3D338865C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C06827-3A2E-4D5B-A49E-F2AD9DFC0C91}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2106,10 +2118,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2118,13 +2130,13 @@
         <v>3096</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,10 +2151,10 @@
         <v>5508</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>16</v>
@@ -2154,13 +2166,13 @@
         <v>8324</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -2169,13 +2181,13 @@
         <v>13832</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2202,13 @@
         <v>1032</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2205,13 +2217,13 @@
         <v>989</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2220,13 +2232,13 @@
         <v>2021</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,22 +2274,22 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,7 +2345,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2351,7 +2363,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2360,13 +2372,13 @@
         <v>2264</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2375,13 +2387,13 @@
         <v>2264</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2408,13 @@
         <v>3164</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2411,13 +2423,13 @@
         <v>1045</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2426,13 +2438,13 @@
         <v>4209</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2459,13 @@
         <v>3195</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2462,13 +2474,13 @@
         <v>3111</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -2504,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2519,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2534,7 +2546,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2635,7 @@
         <v>89</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2632,13 +2644,13 @@
         <v>3834</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2665,13 @@
         <v>6128</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2668,13 +2680,13 @@
         <v>2053</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2683,13 +2695,13 @@
         <v>8181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2716,13 @@
         <v>3981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2719,13 +2731,13 @@
         <v>1077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2734,13 +2746,13 @@
         <v>5058</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2791,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2871,13 @@
         <v>1037</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2874,13 +2886,13 @@
         <v>10250</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2889,13 +2901,13 @@
         <v>11287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2922,13 @@
         <v>17919</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2925,13 +2937,13 @@
         <v>12355</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -2940,13 +2952,13 @@
         <v>30274</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2973,13 @@
         <v>9215</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -2976,13 +2988,13 @@
         <v>6284</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -2991,13 +3003,13 @@
         <v>15499</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3033,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3048,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,7 +3116,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02F7478-8B94-4BCD-B40B-8A282B578CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA88D70-5B45-4FE6-A388-429BF0F3066B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3142,7 +3154,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3496,7 +3508,7 @@
         <v>952</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
@@ -3511,7 +3523,7 @@
         <v>2241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
@@ -3526,13 +3538,13 @@
         <v>3193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3559,7 @@
         <v>892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -3577,13 +3589,13 @@
         <v>892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3613,13 +3625,13 @@
         <v>1046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3628,13 +3640,13 @@
         <v>1046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,7 +3667,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3664,13 +3676,13 @@
         <v>1205</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3679,13 +3691,13 @@
         <v>1205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,7 +3801,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3816,13 @@
         <v>3818</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -3822,7 +3834,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>18</v>
@@ -3834,13 +3846,13 @@
         <v>8164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3867,13 @@
         <v>2966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3885,13 +3897,13 @@
         <v>2966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3954,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +4010,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4010,7 +4022,7 @@
         <v>2056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -4040,13 +4052,13 @@
         <v>2056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4073,13 @@
         <v>1138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4091,13 +4103,13 @@
         <v>2135</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4124,13 @@
         <v>890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4142,13 +4154,13 @@
         <v>890</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,7 +4285,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4282,13 +4294,13 @@
         <v>3582</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -4297,13 +4309,13 @@
         <v>3582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4330,13 @@
         <v>8846</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4333,13 +4345,13 @@
         <v>7303</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4348,13 +4360,13 @@
         <v>16149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4381,13 @@
         <v>4111</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4384,13 +4396,13 @@
         <v>2120</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4399,13 +4411,13 @@
         <v>6232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4441,7 +4453,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -4456,7 +4468,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4536,13 @@
         <v>3008</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -4539,13 +4551,13 @@
         <v>5823</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -4554,13 +4566,13 @@
         <v>8830</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4587,13 @@
         <v>15687</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4590,13 +4602,13 @@
         <v>12645</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -4605,13 +4617,13 @@
         <v>28333</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4638,13 @@
         <v>7968</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4641,13 +4653,13 @@
         <v>3166</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -4656,13 +4668,13 @@
         <v>11134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4692,13 +4704,13 @@
         <v>1205</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4707,13 +4719,13 @@
         <v>1205</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4781,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4790,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D347CA6-6F43-46D3-B456-D2B939EBA49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0437E7A9-3EEE-4E14-BBBB-1E1670B70F23}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4807,7 +4819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5167,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5182,7 +5194,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5197,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5224,13 @@
         <v>8809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5227,13 +5239,13 @@
         <v>4376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5242,13 +5254,13 @@
         <v>13185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5275,13 @@
         <v>4285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5278,13 +5290,13 @@
         <v>4001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5293,13 +5305,13 @@
         <v>8286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,7 +5332,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5335,7 +5347,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5350,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5439,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5454,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5481,13 @@
         <v>16063</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -5484,13 +5496,13 @@
         <v>18696</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -5499,13 +5511,13 @@
         <v>34759</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5532,13 @@
         <v>64817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5535,13 +5547,13 @@
         <v>9386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5550,13 +5562,13 @@
         <v>74203</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5592,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5607,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,7 +5675,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5681,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5696,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5711,7 +5723,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5738,13 @@
         <v>9119</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -5741,13 +5753,13 @@
         <v>7157</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5756,13 +5768,13 @@
         <v>16276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5789,13 @@
         <v>13548</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -5792,13 +5804,13 @@
         <v>10012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -5807,13 +5819,13 @@
         <v>23560</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5849,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5864,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,7 +5950,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5953,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5968,7 +5980,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +5995,13 @@
         <v>23251</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -5998,13 +6010,13 @@
         <v>18311</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -6013,13 +6025,13 @@
         <v>41562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6046,13 @@
         <v>11647</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6049,13 +6061,13 @@
         <v>10927</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -6064,13 +6076,13 @@
         <v>22573</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6106,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6121,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6210,7 +6222,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6225,7 +6237,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6252,13 @@
         <v>57241</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H30" s="7">
         <v>79</v>
@@ -6255,13 +6267,13 @@
         <v>48540</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -6270,13 +6282,13 @@
         <v>105782</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6303,13 @@
         <v>94297</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -6306,13 +6318,13 @@
         <v>34809</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M31" s="7">
         <v>108</v>
@@ -6321,13 +6333,13 @@
         <v>129105</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6363,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6378,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6446,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
